--- a/sofascore_team_data/Premier_League_Team_Stats.xlsx
+++ b/sofascore_team_data/Premier_League_Team_Stats.xlsx
@@ -1160,22 +1160,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I2" t="n">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="J2" t="n">
         <v>3</v>
@@ -1190,19 +1190,19 @@
         <v>6</v>
       </c>
       <c r="N2" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O2" t="n">
         <v>8</v>
       </c>
       <c r="P2" t="n">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="Q2" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="R2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="S2" t="n">
         <v>9</v>
@@ -1211,31 +1211,31 @@
         <v>26</v>
       </c>
       <c r="U2" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V2" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="W2" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="X2" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Y2" t="n">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Z2" t="n">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="AA2" t="n">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AB2" t="n">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="AC2" t="n">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AD2" t="n">
         <v>8</v>
@@ -1250,70 +1250,70 @@
         <v>26</v>
       </c>
       <c r="AH2" t="n">
-        <v>57.4</v>
+        <v>57.461538461538</v>
       </c>
       <c r="AI2" t="n">
-        <v>12059</v>
+        <v>12511</v>
       </c>
       <c r="AJ2" t="n">
-        <v>10241</v>
+        <v>10625</v>
       </c>
       <c r="AK2" t="n">
-        <v>84.924123061614</v>
+        <v>84.925265766126</v>
       </c>
       <c r="AL2" t="n">
-        <v>5261</v>
+        <v>5427</v>
       </c>
       <c r="AM2" t="n">
-        <v>4868</v>
+        <v>5015</v>
       </c>
       <c r="AN2" t="n">
-        <v>92.52993727428201</v>
+        <v>92.408328726737</v>
       </c>
       <c r="AO2" t="n">
-        <v>6798</v>
+        <v>7084</v>
       </c>
       <c r="AP2" t="n">
-        <v>5373</v>
+        <v>5610</v>
       </c>
       <c r="AQ2" t="n">
-        <v>79.03795233892301</v>
+        <v>79.192546583851</v>
       </c>
       <c r="AR2" t="n">
-        <v>735</v>
+        <v>758</v>
       </c>
       <c r="AS2" t="n">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="AT2" t="n">
-        <v>45.714285714286</v>
+        <v>46.174142480211</v>
       </c>
       <c r="AU2" t="n">
-        <v>480</v>
+        <v>503</v>
       </c>
       <c r="AV2" t="n">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="AW2" t="n">
-        <v>24.166666666667</v>
+        <v>24.652087475149</v>
       </c>
       <c r="AX2" t="n">
         <v>13</v>
       </c>
       <c r="AY2" t="n">
-        <v>388</v>
+        <v>410</v>
       </c>
       <c r="AZ2" t="n">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="BA2" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="BB2" t="n">
         <v>3</v>
       </c>
       <c r="BC2" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BD2" t="n">
         <v>0</v>
@@ -1322,52 +1322,52 @@
         <v>0</v>
       </c>
       <c r="BF2" t="n">
-        <v>569</v>
+        <v>606</v>
       </c>
       <c r="BG2" t="n">
         <v>1</v>
       </c>
       <c r="BH2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BI2" t="n">
-        <v>2354</v>
+        <v>2447</v>
       </c>
       <c r="BJ2" t="n">
-        <v>1216</v>
+        <v>1274</v>
       </c>
       <c r="BK2" t="n">
-        <v>51.656754460493</v>
+        <v>52.063751532489</v>
       </c>
       <c r="BL2" t="n">
-        <v>1577</v>
+        <v>1642</v>
       </c>
       <c r="BM2" t="n">
-        <v>822</v>
+        <v>859</v>
       </c>
       <c r="BN2" t="n">
-        <v>52.124286620165</v>
+        <v>52.31425091352</v>
       </c>
       <c r="BO2" t="n">
-        <v>777</v>
+        <v>805</v>
       </c>
       <c r="BP2" t="n">
-        <v>394</v>
+        <v>415</v>
       </c>
       <c r="BQ2" t="n">
-        <v>50.707850707851</v>
+        <v>51.552795031056</v>
       </c>
       <c r="BR2" t="n">
-        <v>3076</v>
+        <v>3196</v>
       </c>
       <c r="BS2" t="n">
         <v>40</v>
       </c>
       <c r="BT2" t="n">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="BU2" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="BV2" t="n">
         <v>0</v>
@@ -1376,67 +1376,67 @@
         <v>0</v>
       </c>
       <c r="BX2" t="n">
-        <v>6.9410052910053</v>
+        <v>6.9389312977099</v>
       </c>
       <c r="BY2" t="n">
-        <v>1425</v>
+        <v>1465</v>
       </c>
       <c r="BZ2" t="n">
-        <v>3223</v>
+        <v>3307</v>
       </c>
       <c r="CA2" t="n">
-        <v>3910</v>
+        <v>4061</v>
       </c>
       <c r="CB2" t="n">
-        <v>7133</v>
+        <v>7368</v>
       </c>
       <c r="CC2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="CD2" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="CE2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="CF2" t="n">
-        <v>815</v>
+        <v>843</v>
       </c>
       <c r="CG2" t="n">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="CH2" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="CI2" t="n">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="CJ2" t="n">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="CK2" t="n">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="CL2" t="n">
         <v>7</v>
       </c>
       <c r="CM2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="CN2" t="n">
         <v>8</v>
       </c>
       <c r="CO2" t="n">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="CP2" t="n">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="CQ2" t="n">
-        <v>527</v>
+        <v>550</v>
       </c>
       <c r="CR2" t="n">
-        <v>1330</v>
+        <v>1393</v>
       </c>
       <c r="CS2" t="n">
         <v>17</v>
@@ -1445,61 +1445,61 @@
         <v>1</v>
       </c>
       <c r="CU2" t="n">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="CV2" t="n">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="CW2" t="n">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="CX2" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="CY2" t="n">
+        <v>75</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>56</v>
+      </c>
+      <c r="DA2" t="n">
         <v>71</v>
       </c>
-      <c r="CZ2" t="n">
-        <v>53</v>
-      </c>
-      <c r="DA2" t="n">
-        <v>66</v>
-      </c>
       <c r="DB2" t="n">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="DC2" t="n">
-        <v>2231</v>
+        <v>2309</v>
       </c>
       <c r="DD2" t="n">
-        <v>4541</v>
+        <v>4684</v>
       </c>
       <c r="DE2" t="n">
-        <v>4400</v>
+        <v>4571</v>
       </c>
       <c r="DF2" t="n">
-        <v>8941</v>
+        <v>9255</v>
       </c>
       <c r="DG2" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="DH2" t="n">
-        <v>423</v>
+        <v>442</v>
       </c>
       <c r="DI2" t="n">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="DJ2" t="n">
-        <v>1128</v>
+        <v>1170</v>
       </c>
       <c r="DK2" t="n">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="DL2" t="n">
         <v>48428</v>
       </c>
       <c r="DM2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="DN2" t="n">
         <v>0</v>
@@ -1515,70 +1515,70 @@
         </is>
       </c>
       <c r="DQ2" t="n">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.68</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="DS2" t="n">
-        <v>14.96</v>
+        <v>14.65</v>
       </c>
       <c r="DT2" t="n">
-        <v>5.08</v>
+        <v>4.96</v>
       </c>
       <c r="DU2" t="n">
-        <v>6.12</v>
+        <v>6.04</v>
       </c>
       <c r="DV2" t="n">
-        <v>10.08</v>
+        <v>10.12</v>
       </c>
       <c r="DW2" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="DX2" t="n">
         <v>0</v>
       </c>
       <c r="DY2" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="DZ2" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="EB2" t="n">
         <v>0.12</v>
       </c>
       <c r="EC2" t="n">
-        <v>409.64</v>
+        <v>408.65</v>
       </c>
       <c r="ED2" t="n">
-        <v>15.52</v>
+        <v>15.77</v>
       </c>
       <c r="EE2" t="n">
-        <v>7.2</v>
+        <v>7.08</v>
       </c>
       <c r="EF2" t="n">
-        <v>22.76</v>
+        <v>23.31</v>
       </c>
       <c r="EG2" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="EH2" t="n">
-        <v>48.64</v>
+        <v>49</v>
       </c>
       <c r="EI2" t="n">
-        <v>32.88</v>
+        <v>33.04</v>
       </c>
       <c r="EJ2" t="n">
-        <v>15.76</v>
+        <v>15.96</v>
       </c>
       <c r="EK2" t="n">
-        <v>123.04</v>
+        <v>122.92</v>
       </c>
       <c r="EL2" t="n">
-        <v>7.44</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="3">
@@ -3776,22 +3776,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F8" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G8" t="n">
         <v>2</v>
       </c>
       <c r="H8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I8" t="n">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="J8" t="n">
         <v>6</v>
@@ -3806,19 +3806,19 @@
         <v>5</v>
       </c>
       <c r="N8" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O8" t="n">
         <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="Q8" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="R8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S8" t="n">
         <v>12</v>
@@ -3827,109 +3827,109 @@
         <v>20</v>
       </c>
       <c r="U8" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="V8" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="W8" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="X8" t="n">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="Y8" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="Z8" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AA8" t="n">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="AB8" t="n">
-        <v>382</v>
+        <v>402</v>
       </c>
       <c r="AC8" t="n">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="AD8" t="n">
         <v>10</v>
       </c>
       <c r="AE8" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="AF8" t="n">
         <v>9</v>
       </c>
       <c r="AG8" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AH8" t="n">
-        <v>46.64</v>
+        <v>46.423076923077</v>
       </c>
       <c r="AI8" t="n">
-        <v>9743</v>
+        <v>10057</v>
       </c>
       <c r="AJ8" t="n">
-        <v>7750</v>
+        <v>7985</v>
       </c>
       <c r="AK8" t="n">
-        <v>79.544288206918</v>
+        <v>79.39743462265101</v>
       </c>
       <c r="AL8" t="n">
-        <v>4816</v>
+        <v>4987</v>
       </c>
       <c r="AM8" t="n">
-        <v>4357</v>
+        <v>4508</v>
       </c>
       <c r="AN8" t="n">
-        <v>90.46926910299</v>
+        <v>90.39502707038299</v>
       </c>
       <c r="AO8" t="n">
-        <v>4927</v>
+        <v>5070</v>
       </c>
       <c r="AP8" t="n">
-        <v>3393</v>
+        <v>3477</v>
       </c>
       <c r="AQ8" t="n">
-        <v>68.865435356201</v>
+        <v>68.579881656805</v>
       </c>
       <c r="AR8" t="n">
-        <v>921</v>
+        <v>958</v>
       </c>
       <c r="AS8" t="n">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="AT8" t="n">
-        <v>43.865363735071</v>
+        <v>43.736951983299</v>
       </c>
       <c r="AU8" t="n">
-        <v>441</v>
+        <v>456</v>
       </c>
       <c r="AV8" t="n">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="AW8" t="n">
-        <v>25.62358276644</v>
+        <v>25.877192982456</v>
       </c>
       <c r="AX8" t="n">
         <v>6</v>
       </c>
       <c r="AY8" t="n">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="AZ8" t="n">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="BA8" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="BB8" t="n">
         <v>5</v>
       </c>
       <c r="BC8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD8" t="n">
         <v>7</v>
@@ -3938,7 +3938,7 @@
         <v>4</v>
       </c>
       <c r="BF8" t="n">
-        <v>749</v>
+        <v>777</v>
       </c>
       <c r="BG8" t="n">
         <v>4</v>
@@ -3947,43 +3947,43 @@
         <v>3</v>
       </c>
       <c r="BI8" t="n">
-        <v>2543</v>
+        <v>2636</v>
       </c>
       <c r="BJ8" t="n">
-        <v>1231</v>
+        <v>1266</v>
       </c>
       <c r="BK8" t="n">
-        <v>48.407392843099</v>
+        <v>48.027314112291</v>
       </c>
       <c r="BL8" t="n">
-        <v>1608</v>
+        <v>1673</v>
       </c>
       <c r="BM8" t="n">
-        <v>747</v>
+        <v>775</v>
       </c>
       <c r="BN8" t="n">
-        <v>46.455223880597</v>
+        <v>46.323968918111</v>
       </c>
       <c r="BO8" t="n">
-        <v>935</v>
+        <v>963</v>
       </c>
       <c r="BP8" t="n">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="BQ8" t="n">
-        <v>51.764705882353</v>
+        <v>50.986500519211</v>
       </c>
       <c r="BR8" t="n">
-        <v>3393</v>
+        <v>3521</v>
       </c>
       <c r="BS8" t="n">
         <v>47</v>
       </c>
       <c r="BT8" t="n">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="BU8" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="BV8" t="n">
         <v>0</v>
@@ -3992,67 +3992,67 @@
         <v>1</v>
       </c>
       <c r="BX8" t="n">
-        <v>6.8045698924731</v>
+        <v>6.801038961039</v>
       </c>
       <c r="BY8" t="n">
-        <v>2408</v>
+        <v>2546</v>
       </c>
       <c r="BZ8" t="n">
-        <v>4826</v>
+        <v>5063</v>
       </c>
       <c r="CA8" t="n">
-        <v>4419</v>
+        <v>4566</v>
       </c>
       <c r="CB8" t="n">
-        <v>9245</v>
+        <v>9629</v>
       </c>
       <c r="CC8" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="CD8" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="CE8" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="CF8" t="n">
-        <v>803</v>
+        <v>840</v>
       </c>
       <c r="CG8" t="n">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="CH8" t="n">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="CI8" t="n">
-        <v>477</v>
+        <v>500</v>
       </c>
       <c r="CJ8" t="n">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="CK8" t="n">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="CL8" t="n">
         <v>4</v>
       </c>
       <c r="CM8" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="CN8" t="n">
         <v>3</v>
       </c>
       <c r="CO8" t="n">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="CP8" t="n">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="CQ8" t="n">
-        <v>538</v>
+        <v>567</v>
       </c>
       <c r="CR8" t="n">
-        <v>1276</v>
+        <v>1324</v>
       </c>
       <c r="CS8" t="n">
         <v>23</v>
@@ -4061,61 +4061,61 @@
         <v>1</v>
       </c>
       <c r="CU8" t="n">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="CV8" t="n">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="CW8" t="n">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="CX8" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="CY8" t="n">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="CZ8" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="DA8" t="n">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="DB8" t="n">
-        <v>431</v>
+        <v>453</v>
       </c>
       <c r="DC8" t="n">
-        <v>3365</v>
+        <v>3541</v>
       </c>
       <c r="DD8" t="n">
-        <v>6330</v>
+        <v>6616</v>
       </c>
       <c r="DE8" t="n">
-        <v>4938</v>
+        <v>5104</v>
       </c>
       <c r="DF8" t="n">
-        <v>11268</v>
+        <v>11720</v>
       </c>
       <c r="DG8" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="DH8" t="n">
-        <v>479</v>
+        <v>502</v>
       </c>
       <c r="DI8" t="n">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="DJ8" t="n">
-        <v>1260</v>
+        <v>1302</v>
       </c>
       <c r="DK8" t="n">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="DL8" t="n">
         <v>48370</v>
       </c>
       <c r="DM8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="DN8" t="n">
         <v>0</v>
@@ -4131,25 +4131,25 @@
         </is>
       </c>
       <c r="DQ8" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="DR8" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="DS8" t="n">
-        <v>10.32</v>
+        <v>10.38</v>
       </c>
       <c r="DT8" t="n">
-        <v>4.08</v>
+        <v>4.04</v>
       </c>
       <c r="DU8" t="n">
-        <v>4.88</v>
+        <v>4.92</v>
       </c>
       <c r="DV8" t="n">
-        <v>10.72</v>
+        <v>10.77</v>
       </c>
       <c r="DW8" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="DX8" t="n">
         <v>0.04</v>
@@ -4158,43 +4158,43 @@
         <v>3.04</v>
       </c>
       <c r="DZ8" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="EA8" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="EB8" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="EC8" t="n">
-        <v>310</v>
+        <v>307.12</v>
       </c>
       <c r="ED8" t="n">
-        <v>15.04</v>
+        <v>14.88</v>
       </c>
       <c r="EE8" t="n">
-        <v>9</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="EF8" t="n">
-        <v>29.96</v>
+        <v>29.88</v>
       </c>
       <c r="EG8" t="n">
-        <v>2.72</v>
+        <v>2.65</v>
       </c>
       <c r="EH8" t="n">
-        <v>49.24</v>
+        <v>48.69</v>
       </c>
       <c r="EI8" t="n">
-        <v>29.88</v>
+        <v>29.81</v>
       </c>
       <c r="EJ8" t="n">
-        <v>19.36</v>
+        <v>18.88</v>
       </c>
       <c r="EK8" t="n">
-        <v>135.72</v>
+        <v>135.42</v>
       </c>
       <c r="EL8" t="n">
-        <v>6.16</v>
+        <v>6.15</v>
       </c>
     </row>
     <row r="9">

--- a/sofascore_team_data/Premier_League_Team_Stats.xlsx
+++ b/sofascore_team_data/Premier_League_Team_Stats.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EL21"/>
+  <dimension ref="A1:DP21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1034,116 +1034,6 @@
           <t>statisticsType_statisticsType</t>
         </is>
       </c>
-      <c r="DQ1" s="1" t="inlineStr">
-        <is>
-          <t>goalsScored_per_90</t>
-        </is>
-      </c>
-      <c r="DR1" s="1" t="inlineStr">
-        <is>
-          <t>goalsConceded_per_90</t>
-        </is>
-      </c>
-      <c r="DS1" s="1" t="inlineStr">
-        <is>
-          <t>shots_per_90</t>
-        </is>
-      </c>
-      <c r="DT1" s="1" t="inlineStr">
-        <is>
-          <t>shotsOnTarget_per_90</t>
-        </is>
-      </c>
-      <c r="DU1" s="1" t="inlineStr">
-        <is>
-          <t>corners_per_90</t>
-        </is>
-      </c>
-      <c r="DV1" s="1" t="inlineStr">
-        <is>
-          <t>fouls_per_90</t>
-        </is>
-      </c>
-      <c r="DW1" s="1" t="inlineStr">
-        <is>
-          <t>yellowCards_per_90</t>
-        </is>
-      </c>
-      <c r="DX1" s="1" t="inlineStr">
-        <is>
-          <t>redCards_per_90</t>
-        </is>
-      </c>
-      <c r="DY1" s="1" t="inlineStr">
-        <is>
-          <t>bigChances_per_90</t>
-        </is>
-      </c>
-      <c r="DZ1" s="1" t="inlineStr">
-        <is>
-          <t>bigChancesMissed_per_90</t>
-        </is>
-      </c>
-      <c r="EA1" s="1" t="inlineStr">
-        <is>
-          <t>hitWoodwork_per_90</t>
-        </is>
-      </c>
-      <c r="EB1" s="1" t="inlineStr">
-        <is>
-          <t>penaltyGoals_per_90</t>
-        </is>
-      </c>
-      <c r="EC1" s="1" t="inlineStr">
-        <is>
-          <t>accuratePasses_per_90</t>
-        </is>
-      </c>
-      <c r="ED1" s="1" t="inlineStr">
-        <is>
-          <t>tackles_per_90</t>
-        </is>
-      </c>
-      <c r="EE1" s="1" t="inlineStr">
-        <is>
-          <t>interceptions_per_90</t>
-        </is>
-      </c>
-      <c r="EF1" s="1" t="inlineStr">
-        <is>
-          <t>clearances_per_90</t>
-        </is>
-      </c>
-      <c r="EG1" s="1" t="inlineStr">
-        <is>
-          <t>saves_per_90</t>
-        </is>
-      </c>
-      <c r="EH1" s="1" t="inlineStr">
-        <is>
-          <t>duelsWon_per_90</t>
-        </is>
-      </c>
-      <c r="EI1" s="1" t="inlineStr">
-        <is>
-          <t>groundDuelsWon_per_90</t>
-        </is>
-      </c>
-      <c r="EJ1" s="1" t="inlineStr">
-        <is>
-          <t>aerialDuelsWon_per_90</t>
-        </is>
-      </c>
-      <c r="EK1" s="1" t="inlineStr">
-        <is>
-          <t>possessionLost_per_90</t>
-        </is>
-      </c>
-      <c r="EL1" s="1" t="inlineStr">
-        <is>
-          <t>successfulDribbles_per_90</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1514,72 +1404,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ2" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="DR2" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="DS2" t="n">
-        <v>14.65</v>
-      </c>
-      <c r="DT2" t="n">
-        <v>4.96</v>
-      </c>
-      <c r="DU2" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="DV2" t="n">
-        <v>10.12</v>
-      </c>
-      <c r="DW2" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="DX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY2" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="DZ2" t="n">
-        <v>2</v>
-      </c>
-      <c r="EA2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="EB2" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="EC2" t="n">
-        <v>408.65</v>
-      </c>
-      <c r="ED2" t="n">
-        <v>15.77</v>
-      </c>
-      <c r="EE2" t="n">
-        <v>7.08</v>
-      </c>
-      <c r="EF2" t="n">
-        <v>23.31</v>
-      </c>
-      <c r="EG2" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="EH2" t="n">
-        <v>49</v>
-      </c>
-      <c r="EI2" t="n">
-        <v>33.04</v>
-      </c>
-      <c r="EJ2" t="n">
-        <v>15.96</v>
-      </c>
-      <c r="EK2" t="n">
-        <v>122.92</v>
-      </c>
-      <c r="EL2" t="n">
-        <v>7.27</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1950,72 +1774,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ3" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="DR3" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="DS3" t="n">
-        <v>14.15</v>
-      </c>
-      <c r="DT3" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="DU3" t="n">
-        <v>5.42</v>
-      </c>
-      <c r="DV3" t="n">
-        <v>10.12</v>
-      </c>
-      <c r="DW3" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="DX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY3" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="DZ3" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="EA3" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="EB3" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="EC3" t="n">
-        <v>507.62</v>
-      </c>
-      <c r="ED3" t="n">
-        <v>15</v>
-      </c>
-      <c r="EE3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="EF3" t="n">
-        <v>22.81</v>
-      </c>
-      <c r="EG3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="EH3" t="n">
-        <v>48.42</v>
-      </c>
-      <c r="EI3" t="n">
-        <v>35.62</v>
-      </c>
-      <c r="EJ3" t="n">
-        <v>12.81</v>
-      </c>
-      <c r="EK3" t="n">
-        <v>118.58</v>
-      </c>
-      <c r="EL3" t="n">
-        <v>9.69</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2386,72 +2144,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="DR4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="DS4" t="n">
-        <v>12.54</v>
-      </c>
-      <c r="DT4" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="DU4" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="DV4" t="n">
-        <v>10.08</v>
-      </c>
-      <c r="DW4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="DX4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="DY4" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="DZ4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="EA4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="EB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC4" t="n">
-        <v>378.08</v>
-      </c>
-      <c r="ED4" t="n">
-        <v>15.69</v>
-      </c>
-      <c r="EE4" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="EF4" t="n">
-        <v>22</v>
-      </c>
-      <c r="EG4" t="n">
-        <v>3</v>
-      </c>
-      <c r="EH4" t="n">
-        <v>47.23</v>
-      </c>
-      <c r="EI4" t="n">
-        <v>34.38</v>
-      </c>
-      <c r="EJ4" t="n">
-        <v>12.85</v>
-      </c>
-      <c r="EK4" t="n">
-        <v>120.65</v>
-      </c>
-      <c r="EL4" t="n">
-        <v>6.5</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2822,72 +2514,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ5" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="DR5" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="DS5" t="n">
-        <v>16.04</v>
-      </c>
-      <c r="DT5" t="n">
-        <v>5.69</v>
-      </c>
-      <c r="DU5" t="n">
-        <v>4.46</v>
-      </c>
-      <c r="DV5" t="n">
-        <v>10.08</v>
-      </c>
-      <c r="DW5" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="DX5" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="DY5" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="DZ5" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="EA5" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="EB5" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="EC5" t="n">
-        <v>387.46</v>
-      </c>
-      <c r="ED5" t="n">
-        <v>18.85</v>
-      </c>
-      <c r="EE5" t="n">
-        <v>7.85</v>
-      </c>
-      <c r="EF5" t="n">
-        <v>24.38</v>
-      </c>
-      <c r="EG5" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="EH5" t="n">
-        <v>52.5</v>
-      </c>
-      <c r="EI5" t="n">
-        <v>35.73</v>
-      </c>
-      <c r="EJ5" t="n">
-        <v>16.77</v>
-      </c>
-      <c r="EK5" t="n">
-        <v>131.88</v>
-      </c>
-      <c r="EL5" t="n">
-        <v>6.65</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3258,72 +2884,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ6" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="DR6" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="DS6" t="n">
-        <v>13.69</v>
-      </c>
-      <c r="DT6" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="DU6" t="n">
-        <v>5.73</v>
-      </c>
-      <c r="DV6" t="n">
-        <v>11.08</v>
-      </c>
-      <c r="DW6" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="DX6" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="DY6" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="DZ6" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="EA6" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="EB6" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="EC6" t="n">
-        <v>466.65</v>
-      </c>
-      <c r="ED6" t="n">
-        <v>16.15</v>
-      </c>
-      <c r="EE6" t="n">
-        <v>10.04</v>
-      </c>
-      <c r="EF6" t="n">
-        <v>23.96</v>
-      </c>
-      <c r="EG6" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="EH6" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="EI6" t="n">
-        <v>35</v>
-      </c>
-      <c r="EJ6" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="EK6" t="n">
-        <v>122.12</v>
-      </c>
-      <c r="EL6" t="n">
-        <v>7.5</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3694,72 +3254,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ7" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="DR7" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="DS7" t="n">
-        <v>15.77</v>
-      </c>
-      <c r="DT7" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="DU7" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="DV7" t="n">
-        <v>9.69</v>
-      </c>
-      <c r="DW7" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="DX7" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="DY7" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="DZ7" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="EA7" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="EB7" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="EC7" t="n">
-        <v>469.81</v>
-      </c>
-      <c r="ED7" t="n">
-        <v>13.04</v>
-      </c>
-      <c r="EE7" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="EF7" t="n">
-        <v>27.23</v>
-      </c>
-      <c r="EG7" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="EH7" t="n">
-        <v>48.08</v>
-      </c>
-      <c r="EI7" t="n">
-        <v>31.38</v>
-      </c>
-      <c r="EJ7" t="n">
-        <v>16.69</v>
-      </c>
-      <c r="EK7" t="n">
-        <v>130</v>
-      </c>
-      <c r="EL7" t="n">
-        <v>8.380000000000001</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -4130,72 +3624,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ8" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="DR8" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="DS8" t="n">
-        <v>10.38</v>
-      </c>
-      <c r="DT8" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="DU8" t="n">
-        <v>4.92</v>
-      </c>
-      <c r="DV8" t="n">
-        <v>10.77</v>
-      </c>
-      <c r="DW8" t="n">
-        <v>2</v>
-      </c>
-      <c r="DX8" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="DY8" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="DZ8" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="EA8" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="EB8" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="EC8" t="n">
-        <v>307.12</v>
-      </c>
-      <c r="ED8" t="n">
-        <v>14.88</v>
-      </c>
-      <c r="EE8" t="n">
-        <v>9.119999999999999</v>
-      </c>
-      <c r="EF8" t="n">
-        <v>29.88</v>
-      </c>
-      <c r="EG8" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="EH8" t="n">
-        <v>48.69</v>
-      </c>
-      <c r="EI8" t="n">
-        <v>29.81</v>
-      </c>
-      <c r="EJ8" t="n">
-        <v>18.88</v>
-      </c>
-      <c r="EK8" t="n">
-        <v>135.42</v>
-      </c>
-      <c r="EL8" t="n">
-        <v>6.15</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -4566,72 +3994,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ9" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="DR9" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="DS9" t="n">
-        <v>11</v>
-      </c>
-      <c r="DT9" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="DU9" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="DV9" t="n">
-        <v>10.69</v>
-      </c>
-      <c r="DW9" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="DX9" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="DY9" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="DZ9" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="EA9" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="EB9" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="EC9" t="n">
-        <v>303.92</v>
-      </c>
-      <c r="ED9" t="n">
-        <v>17.88</v>
-      </c>
-      <c r="EE9" t="n">
-        <v>8</v>
-      </c>
-      <c r="EF9" t="n">
-        <v>30.35</v>
-      </c>
-      <c r="EG9" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="EH9" t="n">
-        <v>57.96</v>
-      </c>
-      <c r="EI9" t="n">
-        <v>35.23</v>
-      </c>
-      <c r="EJ9" t="n">
-        <v>22.73</v>
-      </c>
-      <c r="EK9" t="n">
-        <v>135.65</v>
-      </c>
-      <c r="EL9" t="n">
-        <v>6.15</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -5002,72 +4364,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ10" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="DR10" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="DS10" t="n">
-        <v>13.54</v>
-      </c>
-      <c r="DT10" t="n">
-        <v>4.92</v>
-      </c>
-      <c r="DU10" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="DV10" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="DW10" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="DX10" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="DY10" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="DZ10" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="EA10" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="EB10" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="EC10" t="n">
-        <v>322.08</v>
-      </c>
-      <c r="ED10" t="n">
-        <v>17.42</v>
-      </c>
-      <c r="EE10" t="n">
-        <v>9.619999999999999</v>
-      </c>
-      <c r="EF10" t="n">
-        <v>31.54</v>
-      </c>
-      <c r="EG10" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="EH10" t="n">
-        <v>50.35</v>
-      </c>
-      <c r="EI10" t="n">
-        <v>34.46</v>
-      </c>
-      <c r="EJ10" t="n">
-        <v>15.88</v>
-      </c>
-      <c r="EK10" t="n">
-        <v>138.5</v>
-      </c>
-      <c r="EL10" t="n">
-        <v>7.35</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -5438,72 +4734,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ11" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="DR11" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="DS11" t="n">
-        <v>13.23</v>
-      </c>
-      <c r="DT11" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="DU11" t="n">
-        <v>6.92</v>
-      </c>
-      <c r="DV11" t="n">
-        <v>9.880000000000001</v>
-      </c>
-      <c r="DW11" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="DX11" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="DY11" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="DZ11" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="EA11" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="EB11" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="EC11" t="n">
-        <v>380.35</v>
-      </c>
-      <c r="ED11" t="n">
-        <v>14.27</v>
-      </c>
-      <c r="EE11" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="EF11" t="n">
-        <v>27.27</v>
-      </c>
-      <c r="EG11" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="EH11" t="n">
-        <v>49.92</v>
-      </c>
-      <c r="EI11" t="n">
-        <v>32.08</v>
-      </c>
-      <c r="EJ11" t="n">
-        <v>17.85</v>
-      </c>
-      <c r="EK11" t="n">
-        <v>131.81</v>
-      </c>
-      <c r="EL11" t="n">
-        <v>7.12</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -5874,72 +5104,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ12" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="DR12" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="DS12" t="n">
-        <v>9.69</v>
-      </c>
-      <c r="DT12" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="DU12" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="DV12" t="n">
-        <v>9.960000000000001</v>
-      </c>
-      <c r="DW12" t="n">
-        <v>2</v>
-      </c>
-      <c r="DX12" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="DY12" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="DZ12" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="EA12" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="EB12" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="EC12" t="n">
-        <v>298.77</v>
-      </c>
-      <c r="ED12" t="n">
-        <v>15.65</v>
-      </c>
-      <c r="EE12" t="n">
-        <v>8.27</v>
-      </c>
-      <c r="EF12" t="n">
-        <v>31.73</v>
-      </c>
-      <c r="EG12" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="EH12" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="EI12" t="n">
-        <v>30.65</v>
-      </c>
-      <c r="EJ12" t="n">
-        <v>18.85</v>
-      </c>
-      <c r="EK12" t="n">
-        <v>126.04</v>
-      </c>
-      <c r="EL12" t="n">
-        <v>5.5</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -6310,72 +5474,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ13" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="DR13" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="DS13" t="n">
-        <v>12</v>
-      </c>
-      <c r="DT13" t="n">
-        <v>3.69</v>
-      </c>
-      <c r="DU13" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="DV13" t="n">
-        <v>10.92</v>
-      </c>
-      <c r="DW13" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="DX13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY13" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="DZ13" t="n">
-        <v>1</v>
-      </c>
-      <c r="EA13" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="EB13" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="EC13" t="n">
-        <v>403.12</v>
-      </c>
-      <c r="ED13" t="n">
-        <v>17.27</v>
-      </c>
-      <c r="EE13" t="n">
-        <v>8.460000000000001</v>
-      </c>
-      <c r="EF13" t="n">
-        <v>28.08</v>
-      </c>
-      <c r="EG13" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="EH13" t="n">
-        <v>45.85</v>
-      </c>
-      <c r="EI13" t="n">
-        <v>32</v>
-      </c>
-      <c r="EJ13" t="n">
-        <v>13.85</v>
-      </c>
-      <c r="EK13" t="n">
-        <v>125.58</v>
-      </c>
-      <c r="EL13" t="n">
-        <v>5.96</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -6746,72 +5844,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ14" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="DR14" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="DS14" t="n">
-        <v>11.81</v>
-      </c>
-      <c r="DT14" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="DU14" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="DV14" t="n">
-        <v>10.15</v>
-      </c>
-      <c r="DW14" t="n">
-        <v>2</v>
-      </c>
-      <c r="DX14" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="DY14" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="DZ14" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="EA14" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="EB14" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="EC14" t="n">
-        <v>301.65</v>
-      </c>
-      <c r="ED14" t="n">
-        <v>18.96</v>
-      </c>
-      <c r="EE14" t="n">
-        <v>8.85</v>
-      </c>
-      <c r="EF14" t="n">
-        <v>33.04</v>
-      </c>
-      <c r="EG14" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="EH14" t="n">
-        <v>50.88</v>
-      </c>
-      <c r="EI14" t="n">
-        <v>31.81</v>
-      </c>
-      <c r="EJ14" t="n">
-        <v>19.08</v>
-      </c>
-      <c r="EK14" t="n">
-        <v>135.15</v>
-      </c>
-      <c r="EL14" t="n">
-        <v>4.35</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -7182,72 +6214,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ15" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="DR15" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="DS15" t="n">
-        <v>12.85</v>
-      </c>
-      <c r="DT15" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="DU15" t="n">
-        <v>4.92</v>
-      </c>
-      <c r="DV15" t="n">
-        <v>11.96</v>
-      </c>
-      <c r="DW15" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="DX15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY15" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="DZ15" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="EA15" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="EB15" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="EC15" t="n">
-        <v>398.5</v>
-      </c>
-      <c r="ED15" t="n">
-        <v>18.35</v>
-      </c>
-      <c r="EE15" t="n">
-        <v>8.31</v>
-      </c>
-      <c r="EF15" t="n">
-        <v>23.38</v>
-      </c>
-      <c r="EG15" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="EH15" t="n">
-        <v>50.19</v>
-      </c>
-      <c r="EI15" t="n">
-        <v>35.88</v>
-      </c>
-      <c r="EJ15" t="n">
-        <v>14.31</v>
-      </c>
-      <c r="EK15" t="n">
-        <v>130</v>
-      </c>
-      <c r="EL15" t="n">
-        <v>7.88</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -7618,72 +6584,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ16" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="DR16" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="DS16" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="DT16" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="DU16" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="DV16" t="n">
-        <v>10.15</v>
-      </c>
-      <c r="DW16" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="DX16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY16" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="DZ16" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="EA16" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="EB16" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="EC16" t="n">
-        <v>323.23</v>
-      </c>
-      <c r="ED16" t="n">
-        <v>17.88</v>
-      </c>
-      <c r="EE16" t="n">
-        <v>9.27</v>
-      </c>
-      <c r="EF16" t="n">
-        <v>28.27</v>
-      </c>
-      <c r="EG16" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="EH16" t="n">
-        <v>52.38</v>
-      </c>
-      <c r="EI16" t="n">
-        <v>34.27</v>
-      </c>
-      <c r="EJ16" t="n">
-        <v>18.12</v>
-      </c>
-      <c r="EK16" t="n">
-        <v>134.46</v>
-      </c>
-      <c r="EL16" t="n">
-        <v>5.81</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -8054,72 +6954,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ17" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="DR17" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="DS17" t="n">
-        <v>11.08</v>
-      </c>
-      <c r="DT17" t="n">
-        <v>3.77</v>
-      </c>
-      <c r="DU17" t="n">
-        <v>4.92</v>
-      </c>
-      <c r="DV17" t="n">
-        <v>11.19</v>
-      </c>
-      <c r="DW17" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="DX17" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="DY17" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="DZ17" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="EA17" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="EB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC17" t="n">
-        <v>344.38</v>
-      </c>
-      <c r="ED17" t="n">
-        <v>19.81</v>
-      </c>
-      <c r="EE17" t="n">
-        <v>7.27</v>
-      </c>
-      <c r="EF17" t="n">
-        <v>27.04</v>
-      </c>
-      <c r="EG17" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="EH17" t="n">
-        <v>53.27</v>
-      </c>
-      <c r="EI17" t="n">
-        <v>38.62</v>
-      </c>
-      <c r="EJ17" t="n">
-        <v>14.65</v>
-      </c>
-      <c r="EK17" t="n">
-        <v>137.19</v>
-      </c>
-      <c r="EL17" t="n">
-        <v>9.58</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -8490,72 +7324,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ18" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="DR18" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="DS18" t="n">
-        <v>12.81</v>
-      </c>
-      <c r="DT18" t="n">
-        <v>4</v>
-      </c>
-      <c r="DU18" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="DV18" t="n">
-        <v>10.54</v>
-      </c>
-      <c r="DW18" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="DX18" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="DY18" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="DZ18" t="n">
-        <v>1</v>
-      </c>
-      <c r="EA18" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="EB18" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="EC18" t="n">
-        <v>345.69</v>
-      </c>
-      <c r="ED18" t="n">
-        <v>17</v>
-      </c>
-      <c r="EE18" t="n">
-        <v>7.85</v>
-      </c>
-      <c r="EF18" t="n">
-        <v>24.85</v>
-      </c>
-      <c r="EG18" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="EH18" t="n">
-        <v>50.73</v>
-      </c>
-      <c r="EI18" t="n">
-        <v>35.58</v>
-      </c>
-      <c r="EJ18" t="n">
-        <v>15.15</v>
-      </c>
-      <c r="EK18" t="n">
-        <v>133</v>
-      </c>
-      <c r="EL18" t="n">
-        <v>7.5</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -8926,72 +7694,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ19" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="DR19" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="DS19" t="n">
-        <v>10.15</v>
-      </c>
-      <c r="DT19" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="DU19" t="n">
-        <v>5</v>
-      </c>
-      <c r="DV19" t="n">
-        <v>11.04</v>
-      </c>
-      <c r="DW19" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="DX19" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="DY19" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="DZ19" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="EA19" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="EB19" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="EC19" t="n">
-        <v>297.62</v>
-      </c>
-      <c r="ED19" t="n">
-        <v>17.65</v>
-      </c>
-      <c r="EE19" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="EF19" t="n">
-        <v>30.96</v>
-      </c>
-      <c r="EG19" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="EH19" t="n">
-        <v>49.58</v>
-      </c>
-      <c r="EI19" t="n">
-        <v>34.81</v>
-      </c>
-      <c r="EJ19" t="n">
-        <v>14.77</v>
-      </c>
-      <c r="EK19" t="n">
-        <v>127.35</v>
-      </c>
-      <c r="EL19" t="n">
-        <v>6.73</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -9362,72 +8064,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ20" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="DR20" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="DS20" t="n">
-        <v>9</v>
-      </c>
-      <c r="DT20" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="DU20" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="DV20" t="n">
-        <v>9.92</v>
-      </c>
-      <c r="DW20" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="DX20" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="DY20" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="DZ20" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="EA20" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="EB20" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="EC20" t="n">
-        <v>296.46</v>
-      </c>
-      <c r="ED20" t="n">
-        <v>17.35</v>
-      </c>
-      <c r="EE20" t="n">
-        <v>9</v>
-      </c>
-      <c r="EF20" t="n">
-        <v>30.88</v>
-      </c>
-      <c r="EG20" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="EH20" t="n">
-        <v>46.46</v>
-      </c>
-      <c r="EI20" t="n">
-        <v>30.27</v>
-      </c>
-      <c r="EJ20" t="n">
-        <v>16.19</v>
-      </c>
-      <c r="EK20" t="n">
-        <v>133.04</v>
-      </c>
-      <c r="EL20" t="n">
-        <v>4.62</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -9797,72 +8433,6 @@
         <is>
           <t>team</t>
         </is>
-      </c>
-      <c r="DQ21" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="DR21" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="DS21" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="DT21" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="DU21" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="DV21" t="n">
-        <v>13.73</v>
-      </c>
-      <c r="DW21" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="DX21" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="DY21" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="DZ21" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="EA21" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="EB21" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="EC21" t="n">
-        <v>303.31</v>
-      </c>
-      <c r="ED21" t="n">
-        <v>19.15</v>
-      </c>
-      <c r="EE21" t="n">
-        <v>8.380000000000001</v>
-      </c>
-      <c r="EF21" t="n">
-        <v>29.27</v>
-      </c>
-      <c r="EG21" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="EH21" t="n">
-        <v>51.77</v>
-      </c>
-      <c r="EI21" t="n">
-        <v>35.69</v>
-      </c>
-      <c r="EJ21" t="n">
-        <v>16.08</v>
-      </c>
-      <c r="EK21" t="n">
-        <v>127.35</v>
-      </c>
-      <c r="EL21" t="n">
-        <v>6.65</v>
       </c>
     </row>
   </sheetData>
